--- a/Mifos Automation Excels/Client/4805-SUBMITSA01JAN2015(MINACTPRD-30DAYS)-APRACT01JAN2015-INIT&PSTDVD.xlsx
+++ b/Mifos Automation Excels/Client/4805-SUBMITSA01JAN2015(MINACTPRD-30DAYS)-APRACT01JAN2015-INIT&PSTDVD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewSavingInput" sheetId="1" r:id="rId1"/>
@@ -837,7 +837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -953,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,16 +979,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>42095</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="8">
-        <v>8</v>
-      </c>
+      <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
         <v>48</v>
       </c>
